--- a/Validaciones/1-ejemplo-2-sucesos/4----2 sucesos cálculo viscosidades y predicción.xlsx
+++ b/Validaciones/1-ejemplo-2-sucesos/4----2 sucesos cálculo viscosidades y predicción.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1A0DF2-97CA-41BD-B8F5-7C59746D5491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205AC460-7F12-43F4-AE83-0616F46291ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -5889,16 +5889,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>77788</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>406401</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>170770</xdr:rowOff>
+      <xdr:rowOff>86633</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>292513</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
+      <xdr:colOff>811626</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>146051</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5921,8 +5921,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="768351" y="4171270"/>
-          <a:ext cx="8191912" cy="7854043"/>
+          <a:off x="1287464" y="4087133"/>
+          <a:ext cx="8233187" cy="7863568"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5940,9 +5940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>2602403</xdr:colOff>
+      <xdr:colOff>2605578</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>31751</xdr:rowOff>
+      <xdr:rowOff>34926</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6016,15 +6016,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>549275</xdr:colOff>
+          <xdr:colOff>552450</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>1739900</xdr:colOff>
+          <xdr:colOff>1673225</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>73025</xdr:rowOff>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6592,7 +6592,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C45F9B4D-04A9-D985-9A82-1C001F80C76E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6935,37 +6935,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="G1:AU47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Y1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N51" sqref="N51"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.26953125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="2.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="2.54296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="1"/>
-    <col min="10" max="10" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="16.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="62.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="3.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="62.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.7265625" style="1"/>
-    <col min="18" max="18" width="26.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="23" width="8.7265625" style="1"/>
+    <col min="17" max="17" width="8.7109375" style="1"/>
+    <col min="18" max="18" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="8.7109375" style="1"/>
     <col min="24" max="24" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="8.7265625" style="1"/>
+    <col min="25" max="26" width="8.7109375" style="1"/>
     <col min="27" max="27" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.7265625" style="1"/>
+    <col min="28" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:47" x14ac:dyDescent="0.35">
+    <row r="1" spans="7:47" x14ac:dyDescent="0.25">
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="7:47" x14ac:dyDescent="0.35">
+    <row r="2" spans="7:47" x14ac:dyDescent="0.25">
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -7018,7 +7018,7 @@
       <c r="R2" s="3"/>
       <c r="AA2" s="3"/>
     </row>
-    <row r="3" spans="7:47" x14ac:dyDescent="0.35">
+    <row r="3" spans="7:47" x14ac:dyDescent="0.25">
       <c r="G3" s="2">
         <v>0.73913043478260865</v>
       </c>
@@ -7054,7 +7054,7 @@
       <c r="AT3" s="4"/>
       <c r="AU3" s="4"/>
     </row>
-    <row r="4" spans="7:47" x14ac:dyDescent="0.35">
+    <row r="4" spans="7:47" x14ac:dyDescent="0.25">
       <c r="G4" s="2">
         <v>0.91304347826086951</v>
       </c>
@@ -7090,7 +7090,7 @@
       <c r="AT4" s="4"/>
       <c r="AU4" s="4"/>
     </row>
-    <row r="5" spans="7:47" x14ac:dyDescent="0.35">
+    <row r="5" spans="7:47" x14ac:dyDescent="0.25">
       <c r="G5" s="2">
         <v>0.73913043478260865</v>
       </c>
@@ -7130,7 +7130,7 @@
       <c r="AT5" s="4"/>
       <c r="AU5" s="4"/>
     </row>
-    <row r="6" spans="7:47" x14ac:dyDescent="0.35">
+    <row r="6" spans="7:47" x14ac:dyDescent="0.25">
       <c r="G6" s="2">
         <v>0.82608695652173914</v>
       </c>
@@ -7196,7 +7196,7 @@
       <c r="AT6" s="4"/>
       <c r="AU6" s="4"/>
     </row>
-    <row r="7" spans="7:47" x14ac:dyDescent="0.35">
+    <row r="7" spans="7:47" x14ac:dyDescent="0.25">
       <c r="G7" s="2">
         <v>0.82608695652173914</v>
       </c>
@@ -7262,7 +7262,7 @@
       <c r="AT7" s="4"/>
       <c r="AU7" s="4"/>
     </row>
-    <row r="8" spans="7:47" x14ac:dyDescent="0.35">
+    <row r="8" spans="7:47" x14ac:dyDescent="0.25">
       <c r="G8" s="2">
         <v>0.78260869565217395</v>
       </c>
@@ -7328,7 +7328,7 @@
       <c r="AT8" s="4"/>
       <c r="AU8" s="4"/>
     </row>
-    <row r="9" spans="7:47" x14ac:dyDescent="0.35">
+    <row r="9" spans="7:47" x14ac:dyDescent="0.25">
       <c r="G9" s="2">
         <v>0.95652173913043481</v>
       </c>
@@ -7394,7 +7394,7 @@
       <c r="AT9" s="4"/>
       <c r="AU9" s="4"/>
     </row>
-    <row r="10" spans="7:47" x14ac:dyDescent="0.35">
+    <row r="10" spans="7:47" x14ac:dyDescent="0.25">
       <c r="G10" s="2">
         <v>1</v>
       </c>
@@ -7430,7 +7430,7 @@
       <c r="AT10" s="4"/>
       <c r="AU10" s="4"/>
     </row>
-    <row r="11" spans="7:47" x14ac:dyDescent="0.35">
+    <row r="11" spans="7:47" x14ac:dyDescent="0.25">
       <c r="AN11" s="4"/>
       <c r="AO11" s="4"/>
       <c r="AP11" s="4"/>
@@ -7440,7 +7440,7 @@
       <c r="AT11" s="4"/>
       <c r="AU11" s="4"/>
     </row>
-    <row r="12" spans="7:47" x14ac:dyDescent="0.35">
+    <row r="12" spans="7:47" x14ac:dyDescent="0.25">
       <c r="G12" s="2" t="s">
         <v>0</v>
       </c>
@@ -7480,7 +7480,7 @@
       <c r="AT12" s="4"/>
       <c r="AU12" s="4"/>
     </row>
-    <row r="13" spans="7:47" x14ac:dyDescent="0.35">
+    <row r="13" spans="7:47" x14ac:dyDescent="0.25">
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -7500,7 +7500,7 @@
       <c r="AT13" s="4"/>
       <c r="AU13" s="4"/>
     </row>
-    <row r="14" spans="7:47" x14ac:dyDescent="0.35">
+    <row r="14" spans="7:47" x14ac:dyDescent="0.25">
       <c r="G14" s="2">
         <v>0.875</v>
       </c>
@@ -7536,7 +7536,7 @@
       <c r="AT14" s="4"/>
       <c r="AU14" s="4"/>
     </row>
-    <row r="15" spans="7:47" x14ac:dyDescent="0.35">
+    <row r="15" spans="7:47" x14ac:dyDescent="0.25">
       <c r="G15" s="2">
         <v>0.83333333333333337</v>
       </c>
@@ -7572,7 +7572,7 @@
       <c r="AT15" s="4"/>
       <c r="AU15" s="4"/>
     </row>
-    <row r="16" spans="7:47" x14ac:dyDescent="0.35">
+    <row r="16" spans="7:47" x14ac:dyDescent="0.25">
       <c r="G16" s="2">
         <v>0.875</v>
       </c>
@@ -7612,7 +7612,7 @@
       <c r="AT16" s="4"/>
       <c r="AU16" s="4"/>
     </row>
-    <row r="17" spans="7:47" x14ac:dyDescent="0.35">
+    <row r="17" spans="7:47" x14ac:dyDescent="0.25">
       <c r="G17" s="2">
         <v>0.95833333333333337</v>
       </c>
@@ -7678,7 +7678,7 @@
       <c r="AT17" s="4"/>
       <c r="AU17" s="4"/>
     </row>
-    <row r="18" spans="7:47" x14ac:dyDescent="0.35">
+    <row r="18" spans="7:47" x14ac:dyDescent="0.25">
       <c r="G18" s="2">
         <v>1</v>
       </c>
@@ -7744,7 +7744,7 @@
       <c r="AT18" s="4"/>
       <c r="AU18" s="4"/>
     </row>
-    <row r="19" spans="7:47" x14ac:dyDescent="0.35">
+    <row r="19" spans="7:47" x14ac:dyDescent="0.25">
       <c r="G19" s="2">
         <v>1</v>
       </c>
@@ -7810,7 +7810,7 @@
       <c r="AT19" s="4"/>
       <c r="AU19" s="4"/>
     </row>
-    <row r="20" spans="7:47" x14ac:dyDescent="0.35">
+    <row r="20" spans="7:47" x14ac:dyDescent="0.25">
       <c r="G20" s="2">
         <v>0.875</v>
       </c>
@@ -7876,7 +7876,7 @@
       <c r="AT20" s="4"/>
       <c r="AU20" s="4"/>
     </row>
-    <row r="21" spans="7:47" x14ac:dyDescent="0.35">
+    <row r="21" spans="7:47" x14ac:dyDescent="0.25">
       <c r="G21" s="2">
         <v>1</v>
       </c>
@@ -7904,7 +7904,7 @@
       <c r="R21" s="3"/>
       <c r="AA21" s="3"/>
     </row>
-    <row r="26" spans="7:47" x14ac:dyDescent="0.35">
+    <row r="26" spans="7:47" x14ac:dyDescent="0.25">
       <c r="N26" s="5" t="s">
         <v>14</v>
       </c>
@@ -7914,7 +7914,7 @@
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
     </row>
-    <row r="27" spans="7:47" x14ac:dyDescent="0.35">
+    <row r="27" spans="7:47" x14ac:dyDescent="0.25">
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
@@ -7938,7 +7938,7 @@
         <v>2.5164649463038652E-4</v>
       </c>
     </row>
-    <row r="28" spans="7:47" x14ac:dyDescent="0.35">
+    <row r="28" spans="7:47" x14ac:dyDescent="0.25">
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
@@ -7962,7 +7962,7 @@
         <v>-8.1905983811035176E-4</v>
       </c>
     </row>
-    <row r="29" spans="7:47" x14ac:dyDescent="0.35">
+    <row r="29" spans="7:47" x14ac:dyDescent="0.25">
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
@@ -7986,7 +7986,7 @@
         <v>-6.1360785441507673E-5</v>
       </c>
     </row>
-    <row r="30" spans="7:47" x14ac:dyDescent="0.35">
+    <row r="30" spans="7:47" x14ac:dyDescent="0.25">
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
@@ -8010,7 +8010,7 @@
         <v>3.6325747167888253E-3</v>
       </c>
     </row>
-    <row r="31" spans="7:47" x14ac:dyDescent="0.35">
+    <row r="31" spans="7:47" x14ac:dyDescent="0.25">
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
@@ -8018,7 +8018,7 @@
       <c r="R31" s="4"/>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="7:47" x14ac:dyDescent="0.35">
+    <row r="32" spans="7:47" x14ac:dyDescent="0.25">
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
@@ -8026,7 +8026,7 @@
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" spans="13:21" x14ac:dyDescent="0.35">
+    <row r="33" spans="13:21" x14ac:dyDescent="0.25">
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
@@ -8034,7 +8034,7 @@
       <c r="R33" s="4"/>
       <c r="S33" s="4"/>
     </row>
-    <row r="34" spans="13:21" x14ac:dyDescent="0.35">
+    <row r="34" spans="13:21" x14ac:dyDescent="0.25">
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
@@ -8042,7 +8042,7 @@
       <c r="R34" s="4"/>
       <c r="S34" s="4"/>
     </row>
-    <row r="38" spans="13:21" x14ac:dyDescent="0.35">
+    <row r="38" spans="13:21" x14ac:dyDescent="0.25">
       <c r="T38" s="1" t="s">
         <v>12</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>0.93412979275490071</v>
       </c>
     </row>
-    <row r="39" spans="13:21" x14ac:dyDescent="0.35">
+    <row r="39" spans="13:21" x14ac:dyDescent="0.25">
       <c r="T39" s="1" t="s">
         <v>13</v>
       </c>
@@ -8058,23 +8058,23 @@
         <v>6.587020724509926E-2</v>
       </c>
     </row>
-    <row r="43" spans="13:21" x14ac:dyDescent="0.35">
+    <row r="43" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
     </row>
-    <row r="44" spans="13:21" x14ac:dyDescent="0.35">
+    <row r="44" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
     </row>
-    <row r="45" spans="13:21" x14ac:dyDescent="0.35">
+    <row r="45" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
     </row>
-    <row r="46" spans="13:21" x14ac:dyDescent="0.35">
+    <row r="46" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
     </row>
-    <row r="47" spans="13:21" x14ac:dyDescent="0.35">
+    <row r="47" spans="13:21" x14ac:dyDescent="0.25">
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
     </row>
@@ -8095,11 +8095,11 @@
                 <xdr:col>13</xdr:col>
                 <xdr:colOff>552450</xdr:colOff>
                 <xdr:row>25</xdr:row>
-                <xdr:rowOff>165100</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>17</xdr:col>
-                <xdr:colOff>1739900</xdr:colOff>
+                <xdr:colOff>1657350</xdr:colOff>
                 <xdr:row>34</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </to>
